--- a/dataFigueroa.xlsx
+++ b/dataFigueroa.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Dropbox/BookData/chapter7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/Evans/CTforGA/CTforGA_Networks/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E76A01-8169-3648-85D2-34955AB88EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="matrix" sheetId="1" r:id="rId1"/>
-    <sheet name="attributes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
   <si>
     <t>Names</t>
   </si>
@@ -143,17 +143,11 @@
   <si>
     <t>Arias Davila</t>
   </si>
-  <si>
-    <t>multinational</t>
-  </si>
-  <si>
-    <t>Nodes</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -194,6 +188,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -461,10 +458,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL38"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
@@ -4881,323 +4878,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>